--- a/example.xlsx
+++ b/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andywang/GolandProjects/hr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andywang/GolandProjects/hr-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73399A5-6FB9-694A-88A8-AD58BBC76C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6371E9-2DF9-FD43-81DE-10CCF27F5458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
   <si>
     <t>出勤日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,29 +256,6 @@
       </rPr>
       <t>年  06  月份   出勤紀錄</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政</t>
-  </si>
-  <si>
-    <t>DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生理假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1212,7 +1189,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1256,7 +1233,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1284,7 +1261,7 @@
         <v>53</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H1" s="33"/>
       <c r="I1" s="3" t="s">
@@ -1292,120 +1269,32 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="29">
-        <v>44713</v>
-      </c>
-      <c r="G2" s="30">
-        <v>0.375</v>
-      </c>
-      <c r="H2" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
+      <c r="A2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="29">
-        <v>44714</v>
-      </c>
-      <c r="G3" s="30">
-        <v>0.375</v>
-      </c>
-      <c r="H3" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
+      <c r="A3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="29">
-        <v>44718</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0.375</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
+      <c r="A4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="29">
-        <v>44719</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
+      <c r="A5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3"/>
@@ -2227,26 +2116,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1799e822-c83d-49f6-9b92-96757e92dae3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="68b34edd-cd3b-4cc6-93c4-3b70134fbd7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010093E87736E8D0624BA1B50BFE3AB920F8" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6e1a24461c38cd53e300fbc3c0cd6a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1799e822-c83d-49f6-9b92-96757e92dae3" xmlns:ns3="68b34edd-cd3b-4cc6-93c4-3b70134fbd7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03518cf7bf1e77f49e342be0f46b6c04" ns2:_="" ns3:_="">
     <xsd:import namespace="1799e822-c83d-49f6-9b92-96757e92dae3"/>
@@ -2489,26 +2358,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5ACB5EE-792F-4D97-A9AE-18F59368374B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1799e822-c83d-49f6-9b92-96757e92dae3"/>
-    <ds:schemaRef ds:uri="68b34edd-cd3b-4cc6-93c4-3b70134fbd7f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C21CF5-3210-46B6-8BAF-D7EED654AE90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1799e822-c83d-49f6-9b92-96757e92dae3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="68b34edd-cd3b-4cc6-93c4-3b70134fbd7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED81D4CF-5281-4A56-B977-2ED936D6E55B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2525,4 +2395,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C21CF5-3210-46B6-8BAF-D7EED654AE90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5ACB5EE-792F-4D97-A9AE-18F59368374B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1799e822-c83d-49f6-9b92-96757e92dae3"/>
+    <ds:schemaRef ds:uri="68b34edd-cd3b-4cc6-93c4-3b70134fbd7f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>